--- a/doc/sql/计划以及数据.xlsx
+++ b/doc/sql/计划以及数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\elearning-for-NXU\doc\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nxue\elearning-for-NXU\doc\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3783E39F-927D-4F1C-A338-095A8CFECD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F7A6F-078A-43E6-A967-B992D8EDB2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -786,6 +786,22 @@
   </si>
   <si>
     <t>wym</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联studentid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生试卷关系id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生收藏关系id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1039,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,9 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1279,7 +1295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1487,14 +1503,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +1692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1704,7 +1720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1718,7 +1734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1732,7 +1748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1771,20 +1787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.4140625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1807,8 +1823,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1822,12 +1838,12 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
       <c r="B3" s="13" t="s">
         <v>57</v>
       </c>
@@ -1841,10 +1857,10 @@
       <c r="F3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
       <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
@@ -1856,10 +1872,10 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
@@ -1871,10 +1887,10 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="13" t="s">
         <v>77</v>
       </c>
@@ -1886,10 +1902,10 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="13" t="s">
         <v>90</v>
       </c>
@@ -1901,10 +1917,10 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="13" t="s">
         <v>91</v>
       </c>
@@ -1916,10 +1932,10 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
       <c r="B9" s="13" t="s">
         <v>92</v>
       </c>
@@ -1931,10 +1947,10 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
       <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
@@ -1948,10 +1964,10 @@
       <c r="F10" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1965,10 +1981,10 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
       <c r="B12" s="13" t="s">
         <v>70</v>
       </c>
@@ -1980,10 +1996,10 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
       <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
@@ -1995,10 +2011,10 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
       <c r="B14" s="13" t="s">
         <v>65</v>
       </c>
@@ -2012,10 +2028,10 @@
       <c r="F14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2029,10 +2045,10 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
       <c r="B16" s="13" t="s">
         <v>65</v>
       </c>
@@ -2044,10 +2060,10 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
         <v>79</v>
       </c>
@@ -2059,10 +2075,10 @@
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2076,10 +2092,10 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19" s="13" t="s">
         <v>82</v>
       </c>
@@ -2093,10 +2109,10 @@
       <c r="F19" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20" s="13" t="s">
         <v>83</v>
       </c>
@@ -2110,10 +2126,10 @@
       <c r="F20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2127,10 +2143,10 @@
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
       <c r="B22" s="13" t="s">
         <v>71</v>
       </c>
@@ -2142,10 +2158,10 @@
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
       <c r="B23" s="13" t="s">
         <v>97</v>
       </c>
@@ -2157,10 +2173,10 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2174,12 +2190,12 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
       <c r="B25" s="11" t="s">
         <v>114</v>
       </c>
@@ -2191,10 +2207,10 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
       <c r="B26" s="11" t="s">
         <v>117</v>
       </c>
@@ -2208,10 +2224,10 @@
       <c r="F26" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
       <c r="B27" s="11" t="s">
         <v>137</v>
       </c>
@@ -2225,10 +2241,10 @@
       <c r="F27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
       <c r="B28" s="11" t="s">
         <v>120</v>
       </c>
@@ -2242,10 +2258,10 @@
       <c r="F28" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -2259,10 +2275,10 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
       <c r="B30" s="11" t="s">
         <v>114</v>
       </c>
@@ -2274,10 +2290,10 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
       <c r="B31" s="11" t="s">
         <v>124</v>
       </c>
@@ -2291,10 +2307,10 @@
       <c r="F31" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -2308,10 +2324,10 @@
       <c r="F32" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -2325,10 +2341,10 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="28"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
       <c r="B34" s="11" t="s">
         <v>133</v>
       </c>
@@ -2340,10 +2356,10 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
       <c r="B35" s="11" t="s">
         <v>134</v>
       </c>
@@ -2355,10 +2371,10 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
       <c r="B36" s="11" t="s">
         <v>141</v>
       </c>
@@ -2370,10 +2386,10 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
       <c r="B37" s="11" t="s">
         <v>143</v>
       </c>
@@ -2383,10 +2399,10 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
       <c r="B38" s="11" t="s">
         <v>144</v>
       </c>
@@ -2396,10 +2412,10 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -2415,12 +2431,12 @@
         <v>154</v>
       </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
       <c r="B40" s="20" t="s">
         <v>155</v>
       </c>
@@ -2434,10 +2450,10 @@
         <v>158</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>181</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2451,10 +2467,10 @@
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
       <c r="B42" s="20" t="s">
         <v>160</v>
       </c>
@@ -2468,10 +2484,10 @@
       <c r="F42" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
       <c r="B43" s="20" t="s">
         <v>163</v>
       </c>
@@ -2485,10 +2501,10 @@
       <c r="F43" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
       <c r="B44" s="20" t="s">
         <v>165</v>
       </c>
@@ -2502,10 +2518,10 @@
       <c r="F44" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
       <c r="B45" s="20" t="s">
         <v>168</v>
       </c>
@@ -2519,29 +2535,33 @@
       <c r="F45" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="G45" s="32"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>179</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="D46" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
       <c r="B47" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="D47" s="22" t="s">
         <v>182</v>
       </c>
@@ -2549,14 +2569,16 @@
         <v>173</v>
       </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
       <c r="B48" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="D48" s="21" t="s">
         <v>182</v>
       </c>
@@ -2564,29 +2586,33 @@
         <v>175</v>
       </c>
       <c r="F48" s="21"/>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="G48" s="32"/>
+    </row>
+    <row r="49" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
         <v>178</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="D49" s="21" t="s">
         <v>183</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="34"/>
       <c r="B50" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="D50" s="21" t="s">
         <v>182</v>
       </c>
@@ -2594,14 +2620,16 @@
         <v>173</v>
       </c>
       <c r="F50" s="21"/>
-      <c r="G50" s="31"/>
-    </row>
-    <row r="51" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
       <c r="B51" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="21" t="s">
+        <v>189</v>
+      </c>
       <c r="D51" s="21" t="s">
         <v>182</v>
       </c>
@@ -2609,7 +2637,7 @@
         <v>154</v>
       </c>
       <c r="F51" s="21"/>
-      <c r="G51" s="31"/>
+      <c r="G51" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2643,45 +2671,45 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" customWidth="1"/>
     <col min="7" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -2713,7 +2741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -2729,7 +2757,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2741,7 +2769,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2753,7 +2781,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2765,7 +2793,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2777,7 +2805,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2789,7 +2817,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2801,7 +2829,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2813,7 +2841,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2825,7 +2853,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2837,7 +2865,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2849,7 +2877,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2861,7 +2889,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2873,7 +2901,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2885,7 +2913,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2897,7 +2925,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2909,7 +2937,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2921,7 +2949,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2933,7 +2961,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/doc/sql/计划以及数据.xlsx
+++ b/doc/sql/计划以及数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nxue\elearning-for-NXU\doc\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F7A6F-078A-43E6-A967-B992D8EDB2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03831988-3C30-42C3-AE05-5E74983C3A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18480" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,6 +1039,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,18 +1076,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="13" t="s">
         <v>57</v>
       </c>
@@ -1857,10 +1857,10 @@
       <c r="F3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
@@ -1872,10 +1872,10 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
@@ -1887,10 +1887,10 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="13" t="s">
         <v>77</v>
       </c>
@@ -1902,10 +1902,10 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="13" t="s">
         <v>90</v>
       </c>
@@ -1917,10 +1917,10 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="13" t="s">
         <v>91</v>
       </c>
@@ -1932,10 +1932,10 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="13" t="s">
         <v>92</v>
       </c>
@@ -1947,10 +1947,10 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
@@ -1964,10 +1964,10 @@
       <c r="F10" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1981,10 +1981,10 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="13" t="s">
         <v>70</v>
       </c>
@@ -1996,10 +1996,10 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
@@ -2011,10 +2011,10 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="13" t="s">
         <v>65</v>
       </c>
@@ -2028,10 +2028,10 @@
       <c r="F14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2045,10 +2045,10 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="13" t="s">
         <v>65</v>
       </c>
@@ -2060,10 +2060,10 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="13" t="s">
         <v>79</v>
       </c>
@@ -2075,10 +2075,10 @@
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2092,10 +2092,10 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="13" t="s">
         <v>82</v>
       </c>
@@ -2109,10 +2109,10 @@
       <c r="F19" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="13" t="s">
         <v>83</v>
       </c>
@@ -2126,10 +2126,10 @@
       <c r="F20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2143,10 +2143,10 @@
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="13" t="s">
         <v>71</v>
       </c>
@@ -2158,10 +2158,10 @@
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="13" t="s">
         <v>97</v>
       </c>
@@ -2173,10 +2173,10 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="31" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="32" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="11" t="s">
         <v>114</v>
       </c>
@@ -2207,10 +2207,10 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11" t="s">
         <v>117</v>
       </c>
@@ -2224,10 +2224,10 @@
       <c r="F26" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="11" t="s">
         <v>137</v>
       </c>
@@ -2241,10 +2241,10 @@
       <c r="F27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="11" t="s">
         <v>120</v>
       </c>
@@ -2258,10 +2258,10 @@
       <c r="F28" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -2275,10 +2275,10 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="29"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="11" t="s">
         <v>114</v>
       </c>
@@ -2290,10 +2290,10 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="11" t="s">
         <v>124</v>
       </c>
@@ -2307,10 +2307,10 @@
       <c r="F31" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
@@ -2324,10 +2324,10 @@
       <c r="F32" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="31" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -2341,10 +2341,10 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="29"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="11" t="s">
         <v>133</v>
       </c>
@@ -2356,10 +2356,10 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="29"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="11" t="s">
         <v>134</v>
       </c>
@@ -2371,10 +2371,10 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="11" t="s">
         <v>141</v>
       </c>
@@ -2386,10 +2386,10 @@
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="11" t="s">
         <v>143</v>
       </c>
@@ -2399,10 +2399,10 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
         <v>144</v>
       </c>
@@ -2412,10 +2412,10 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="23" t="s">
         <v>150</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -2431,12 +2431,12 @@
         <v>154</v>
       </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>155</v>
       </c>
@@ -2450,10 +2450,10 @@
         <v>158</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="23" t="s">
         <v>181</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2467,10 +2467,10 @@
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="32"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>160</v>
       </c>
@@ -2484,10 +2484,10 @@
       <c r="F42" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>163</v>
       </c>
@@ -2501,10 +2501,10 @@
       <c r="F43" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="32"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>165</v>
       </c>
@@ -2518,10 +2518,10 @@
       <c r="F44" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="32"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>168</v>
       </c>
@@ -2535,10 +2535,10 @@
       <c r="F45" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="32"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="24" t="s">
         <v>179</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -2552,10 +2552,10 @@
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="32"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="20" t="s">
         <v>172</v>
       </c>
@@ -2569,10 +2569,10 @@
         <v>173</v>
       </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="32"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="20" t="s">
         <v>174</v>
       </c>
@@ -2586,10 +2586,10 @@
         <v>175</v>
       </c>
       <c r="F48" s="21"/>
-      <c r="G48" s="32"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="24" t="s">
         <v>178</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -2603,10 +2603,10 @@
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="32"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="20" t="s">
         <v>172</v>
       </c>
@@ -2620,10 +2620,10 @@
         <v>173</v>
       </c>
       <c r="F50" s="21"/>
-      <c r="G50" s="32"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="20" t="s">
         <v>176</v>
       </c>
@@ -2637,15 +2637,10 @@
         <v>154</v>
       </c>
       <c r="F51" s="21"/>
-      <c r="G51" s="32"/>
+      <c r="G51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G39:G51"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A46:A48"/>
     <mergeCell ref="G2:G23"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A38"/>
@@ -2656,6 +2651,11 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G39:G51"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A46:A48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
